--- a/CLAVES TELECOMUNICACIONES.xlsx
+++ b/CLAVES TELECOMUNICACIONES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="144">
   <si>
     <t>CLAVE DGAE</t>
   </si>
@@ -435,12 +435,39 @@
   </si>
   <si>
     <t>1059</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA ELECTRÓNICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE CONTROL</t>
+  </si>
+  <si>
+    <t>INGENIERÍA INDUSTRIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -673,28 +700,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -977,25 +1004,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="161" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="H62" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1079,11 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1100,8 +1135,11 @@
       <c r="Q2" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1153,8 +1191,11 @@
       <c r="Q3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1206,8 +1247,11 @@
       <c r="Q4" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1259,8 +1303,11 @@
       <c r="Q5" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1312,8 +1359,11 @@
       <c r="Q6" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1365,8 +1415,11 @@
       <c r="Q7" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1418,8 +1471,11 @@
       <c r="Q8" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1471,8 +1527,11 @@
       <c r="Q9" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1524,8 +1583,11 @@
       <c r="Q10" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1577,8 +1639,11 @@
       <c r="Q11" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1630,8 +1695,11 @@
       <c r="Q12" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1683,8 +1751,11 @@
       <c r="Q13" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1736,8 +1807,11 @@
       <c r="Q14" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1789,8 +1863,11 @@
       <c r="Q15" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1842,8 +1919,11 @@
       <c r="Q16" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1895,8 +1975,11 @@
       <c r="Q17" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1948,8 +2031,11 @@
       <c r="Q18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2001,8 +2087,11 @@
       <c r="Q19" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -2054,8 +2143,11 @@
       <c r="Q20" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -2107,8 +2199,11 @@
       <c r="Q21" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -2160,8 +2255,11 @@
       <c r="Q22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -2213,8 +2311,11 @@
       <c r="Q23" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
@@ -2266,8 +2367,11 @@
       <c r="Q24" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -2319,8 +2423,11 @@
       <c r="Q25" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -2372,8 +2479,11 @@
       <c r="Q26" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
@@ -2425,8 +2535,11 @@
       <c r="Q27" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -2478,8 +2591,11 @@
       <c r="Q28" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -2531,8 +2647,11 @@
       <c r="Q29" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2584,8 +2703,11 @@
       <c r="Q30" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -2637,8 +2759,11 @@
       <c r="Q31" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -2690,8 +2815,11 @@
       <c r="Q32" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -2743,8 +2871,11 @@
       <c r="Q33" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q34" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -2849,8 +2983,11 @@
       <c r="Q35" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -2902,8 +3039,11 @@
       <c r="Q36" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>31</v>
       </c>
@@ -2955,8 +3095,11 @@
       <c r="Q37" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
@@ -3008,8 +3151,11 @@
       <c r="Q38" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
@@ -3061,8 +3207,11 @@
       <c r="Q39" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>31</v>
       </c>
@@ -3114,8 +3263,11 @@
       <c r="Q40" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
@@ -3167,8 +3319,11 @@
       <c r="Q41" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
@@ -3220,8 +3375,11 @@
       <c r="Q42" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>31</v>
       </c>
@@ -3273,8 +3431,11 @@
       <c r="Q43" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -3326,8 +3487,11 @@
       <c r="Q44" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>31</v>
       </c>
@@ -3379,8 +3543,11 @@
       <c r="Q45" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>31</v>
       </c>
@@ -3432,8 +3599,11 @@
       <c r="Q46" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>31</v>
       </c>
@@ -3485,8 +3655,11 @@
       <c r="Q47" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>31</v>
       </c>
@@ -3538,8 +3711,11 @@
       <c r="Q48" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
@@ -3591,8 +3767,11 @@
       <c r="Q49" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>31</v>
       </c>
@@ -3644,8 +3823,11 @@
       <c r="Q50" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>31</v>
       </c>
@@ -3697,8 +3879,11 @@
       <c r="Q51" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>31</v>
       </c>
@@ -3750,8 +3935,11 @@
       <c r="Q52" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>31</v>
       </c>
@@ -3803,8 +3991,11 @@
       <c r="Q53" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>31</v>
       </c>
@@ -3856,8 +4047,11 @@
       <c r="Q54" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>31</v>
       </c>
@@ -3909,8 +4103,11 @@
       <c r="Q55" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -3962,8 +4159,11 @@
       <c r="Q56" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
@@ -4015,8 +4215,11 @@
       <c r="Q57" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
@@ -4068,8 +4271,11 @@
       <c r="Q58" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>31</v>
       </c>
@@ -4121,8 +4327,11 @@
       <c r="Q59" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>31</v>
       </c>
@@ -4174,8 +4383,11 @@
       <c r="Q60" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>31</v>
       </c>
@@ -4227,8 +4439,11 @@
       <c r="Q61" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>31</v>
       </c>
@@ -4280,8 +4495,11 @@
       <c r="Q62" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>31</v>
       </c>
@@ -4333,8 +4551,11 @@
       <c r="Q63" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>31</v>
       </c>
@@ -4386,8 +4607,11 @@
       <c r="Q64" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>31</v>
       </c>
@@ -4439,8 +4663,11 @@
       <c r="Q65" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
@@ -4492,8 +4719,11 @@
       <c r="Q66" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
@@ -4545,8 +4775,11 @@
       <c r="Q67" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>31</v>
       </c>
@@ -4598,8 +4831,11 @@
       <c r="Q68" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>31</v>
       </c>
@@ -4651,8 +4887,11 @@
       <c r="Q69" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>31</v>
       </c>
@@ -4704,8 +4943,11 @@
       <c r="Q70" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
@@ -4757,8 +4999,11 @@
       <c r="Q71" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>31</v>
       </c>
@@ -4810,8 +5055,11 @@
       <c r="Q72" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>31</v>
       </c>
@@ -4863,8 +5111,11 @@
       <c r="Q73" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>31</v>
       </c>
@@ -4916,8 +5167,11 @@
       <c r="Q74" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -4969,8 +5223,11 @@
       <c r="Q75" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>31</v>
       </c>
@@ -5022,8 +5279,11 @@
       <c r="Q76" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>31</v>
       </c>
@@ -5075,8 +5335,11 @@
       <c r="Q77" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>31</v>
       </c>
@@ -5128,8 +5391,11 @@
       <c r="Q78" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>31</v>
       </c>
@@ -5181,8 +5447,11 @@
       <c r="Q79" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>31</v>
       </c>
@@ -5234,8 +5503,11 @@
       <c r="Q80" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>31</v>
       </c>
@@ -5287,8 +5559,11 @@
       <c r="Q81" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>31</v>
       </c>
@@ -5340,8 +5615,11 @@
       <c r="Q82" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>31</v>
       </c>
@@ -5393,8 +5671,11 @@
       <c r="Q83" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>31</v>
       </c>
@@ -5446,8 +5727,11 @@
       <c r="Q84" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>31</v>
       </c>
@@ -5499,8 +5783,11 @@
       <c r="Q85" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R85" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>31</v>
       </c>
@@ -5552,8 +5839,11 @@
       <c r="Q86" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>31</v>
       </c>
@@ -5605,8 +5895,11 @@
       <c r="Q87" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>31</v>
       </c>
@@ -5658,8 +5951,11 @@
       <c r="Q88" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R88" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>31</v>
       </c>
@@ -5711,8 +6007,11 @@
       <c r="Q89" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>31</v>
       </c>
@@ -5764,8 +6063,11 @@
       <c r="Q90" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R90" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>31</v>
       </c>
@@ -5817,8 +6119,11 @@
       <c r="Q91" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R91" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>31</v>
       </c>
@@ -5870,8 +6175,11 @@
       <c r="Q92" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>31</v>
       </c>
@@ -5923,9 +6231,11 @@
       <c r="Q93" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="R93" s="9" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q93"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" fitToHeight="0" orientation="landscape"/>
   <extLst>

--- a/CLAVES TELECOMUNICACIONES.xlsx
+++ b/CLAVES TELECOMUNICACIONES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -700,28 +700,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1006,24 +1006,28 @@
   </sheetPr>
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H62" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H62" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="29" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
